--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\B-o-C-o-Th-c-T-p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Bao_Cao_Thuc_Tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ngày</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Tìm hiểu khái niệm về campus network, viết đề cương.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu luật 80/20, các mô hình mạng campus, mô hình mạng 3 lớp của Cissco.</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -96,6 +99,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -381,7 +387,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,8 +413,12 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="6">
+        <v>43542</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>

--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ngày</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Tìm hiểu luật 80/20, các mô hình mạng campus, mô hình mạng 3 lớp của Cissco.</t>
+  </si>
+  <si>
+    <t>Mô hình Modular trong thiết kế mạng Campus: khối switch, khối core, các khối building.</t>
   </si>
 </sst>
 </file>
@@ -387,13 +390,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,8 +424,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="6">
+        <v>43543</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ngày</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Mô hình Modular trong thiết kế mạng Campus: khối switch, khối core, các khối building.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Vlan: Vlan membership, triển khai vlan, ưu nhược điểm.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +435,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="6">
+        <v>43544</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ngày</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Tìm hiểu Vlan: Vlan membership, triển khai vlan, ưu nhược điểm.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu VTP, các chế độ VTP, lợi ích của VTP.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu Trunk, các chuẩn trunking trong một hệ thống mạng, kỹ thuật trunking ISL.</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -109,6 +115,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,7 +405,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -443,12 +455,20 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="6">
+        <v>43547</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>

--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ngày</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Tìm hiểu Trunk, các chuẩn trunking trong một hệ thống mạng, kỹ thuật trunking ISL.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu khái niệm spanning tree, tại sao phải sử dụng spanning tree.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu trạng thái spanning tree, bộ định thời gian STP.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu BPDU, quá trình thay đổi cấu trúc mạng.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,16 +480,28 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="6">
+        <v>43550</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="6">
+        <v>43553</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/Quá trình làm báo cáo.xlsx
+++ b/Quá trình làm báo cáo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ngày</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>Tìm hiểu BPDU, quá trình thay đổi cấu trúc mạng.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu MPLS (chuyển mạch nhãn đa giao thức).</t>
+  </si>
+  <si>
+    <t>Tìm hiểu chức năng, lợi ích, các khái niệm cơ bản.</t>
+  </si>
+  <si>
+    <t>Các bảng tra FIB và LFIB, control plane, data plane.</t>
+  </si>
+  <si>
+    <t>Giao thức phân phối nhãn - LDP</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cơ chể hoạt động của MPLS: frame-mode, cell-mode.</t>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,24 +519,44 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="6">
+        <v>43560</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="6">
+        <v>43561</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="6">
+        <v>43562</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="6">
+        <v>43563</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="6">
+        <v>43564</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
